--- a/biology/Médecine/Zone_de_Kiesselbach/Zone_de_Kiesselbach.xlsx
+++ b/biology/Médecine/Zone_de_Kiesselbach/Zone_de_Kiesselbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le zone de Kiesselbach est un plexus vasculaire formé de quatre ou cinq artères qui s'anastomosent dans le cloison nasale.
 Il se situe dans la partie antéro-inférieure du septum.
@@ -513,7 +525,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de Kiesselbach est une anastomose entre quatre ou cinq artères :
 l'artère ethmoïdale antérieure, branche de l'artère ophtalmique.
@@ -550,11 +564,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quatre-vingt-dix pour cent des saignements de nez (épistaxis) proviennent de la zone de Kiesselbach[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre-vingt-dix pour cent des saignements de nez (épistaxis) proviennent de la zone de Kiesselbach.
 C'est une zone fragile qui est exposée à l'effet desséchant de l'air inhalé.
-Elle peut également être endommagée un ongle lors d'un décrottage de nez. Un médecin peut utiliser un spéculum nasal pour déterminer si le saignement provient de la zone de Kiesselbach[2].
+Elle peut également être endommagée un ongle lors d'un décrottage de nez. Un médecin peut utiliser un spéculum nasal pour déterminer si le saignement provient de la zone de Kiesselbach.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Lawrence Little (1836–1885), un chirurgien américain, a décrit la région en détail pour la première fois en 1879. Little a décrit la zone comme étant "à environ un demi-pouce... du bord inférieur du milieu de la colonne [septum]"[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Lawrence Little (1836–1885), un chirurgien américain, a décrit la région en détail pour la première fois en 1879. Little a décrit la zone comme étant "à environ un demi-pouce... du bord inférieur du milieu de la colonne [septum]".
 La zone de Kiesselbach porte le nom de Wilhelm Kiesselbach (1839–1902), un otorhinolaryngologiste allemand qui a publié un article sur la région en 1884.
 </t>
         </is>
